--- a/RDS/TrajSUM.xlsx
+++ b/RDS/TrajSUM.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Health-impacts-of-air-pollution\RDS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REAL\Documents\GitHub\Health-impacts-of-air-pollution\RDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90E414A8-FB9A-43EB-B178-816DD2FB9EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{B89D6165-EF4E-4260-AF2E-DF687A5AFB9B}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="wtraj" sheetId="2" r:id="rId1"/>
     <sheet name="Etraj" sheetId="3" r:id="rId2"/>
-    <sheet name="Straj" sheetId="1" r:id="rId3"/>
-    <sheet name="Htraj" sheetId="4" r:id="rId4"/>
-    <sheet name="Mtraj" sheetId="5" r:id="rId5"/>
+    <sheet name="Htraj" sheetId="4" r:id="rId3"/>
+    <sheet name="Mtraj" sheetId="5" r:id="rId4"/>
+    <sheet name="Straj" sheetId="1" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="268">
   <si>
     <t>pm2.5</t>
   </si>
@@ -558,12 +557,6 @@
     <t>21.9</t>
   </si>
   <si>
-    <t>n p</t>
-  </si>
-  <si>
-    <t>ercent</t>
-  </si>
-  <si>
     <t>23.9</t>
   </si>
   <si>
@@ -847,13 +840,16 @@
   </si>
   <si>
     <t>9.12</t>
+  </si>
+  <si>
+    <t>Percent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -870,7 +866,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -878,12 +874,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1217,396 +1232,359 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6E3721-4212-4A6F-AEDA-0240EADC8F39}">
-  <dimension ref="A3:G22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
         <v>999</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F4" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
         <v>584</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F5" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1">
         <v>619</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F6" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1">
         <v>508</v>
       </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F7" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1">
         <v>461</v>
       </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F8" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="1">
         <v>481</v>
       </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="C9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" t="s">
+        <v>267</v>
+      </c>
+      <c r="D12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13">
+        <v>20976</v>
+      </c>
+      <c r="C13" t="s">
         <v>172</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14">
+        <v>4817</v>
+      </c>
+      <c r="C14" t="s">
         <v>173</v>
       </c>
-      <c r="C13" t="s">
-        <v>151</v>
-      </c>
-      <c r="D13" t="s">
-        <v>152</v>
-      </c>
-      <c r="E13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F13" t="s">
-        <v>108</v>
-      </c>
-      <c r="G13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>144</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>157</v>
       </c>
       <c r="F14" t="s">
-        <v>5</v>
+        <v>158</v>
       </c>
       <c r="G14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>20976</v>
-      </c>
-      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15">
+        <v>12868</v>
+      </c>
+      <c r="C15" t="s">
         <v>174</v>
       </c>
-      <c r="C15" t="s">
-        <v>112</v>
-      </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="E15" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F15" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="G15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>4817</v>
-      </c>
-      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16">
+        <v>9375</v>
+      </c>
+      <c r="C16" t="s">
         <v>175</v>
       </c>
-      <c r="C16" t="s">
-        <v>117</v>
-      </c>
       <c r="D16" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E16" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F16" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="G16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>12868</v>
-      </c>
-      <c r="B17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17">
+        <v>7736</v>
+      </c>
+      <c r="C17" t="s">
         <v>176</v>
       </c>
-      <c r="C17" t="s">
-        <v>120</v>
-      </c>
       <c r="D17" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="E17" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F17" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>9375</v>
-      </c>
-      <c r="B18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18">
+        <v>12239</v>
+      </c>
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" t="s">
+        <v>168</v>
+      </c>
+      <c r="E18" t="s">
+        <v>169</v>
+      </c>
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19">
+        <v>7565</v>
+      </c>
+      <c r="C19" t="s">
         <v>177</v>
       </c>
-      <c r="C18" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" t="s">
-        <v>161</v>
-      </c>
-      <c r="E18" t="s">
-        <v>162</v>
-      </c>
-      <c r="F18" t="s">
-        <v>163</v>
-      </c>
-      <c r="G18" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>7736</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
+        <v>170</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20">
+        <v>12070</v>
+      </c>
+      <c r="C20" t="s">
         <v>178</v>
       </c>
-      <c r="C19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" t="s">
-        <v>165</v>
-      </c>
-      <c r="E19" t="s">
-        <v>166</v>
-      </c>
-      <c r="F19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>12239</v>
-      </c>
-      <c r="B20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" t="s">
-        <v>131</v>
-      </c>
       <c r="D20" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E20" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F20" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>7565</v>
-      </c>
-      <c r="B21" t="s">
-        <v>179</v>
-      </c>
-      <c r="C21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D21" t="s">
-        <v>170</v>
-      </c>
-      <c r="E21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>12070</v>
-      </c>
-      <c r="B22" t="s">
-        <v>180</v>
-      </c>
-      <c r="C22" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" t="s">
-        <v>170</v>
-      </c>
-      <c r="E22" t="s">
-        <v>171</v>
-      </c>
-      <c r="F22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G22" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1616,396 +1594,382 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367200A9-CEBD-4600-8576-161D07EC4EB8}">
-  <dimension ref="A3:G21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A3" sqref="A3:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>701</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
+        <v>486</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1">
+        <v>494</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1">
+        <v>564</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1">
+        <v>768</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="1">
+        <v>638</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" t="s">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F12" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>701</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>486</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>494</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>564</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>768</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>638</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" t="s">
-        <v>107</v>
-      </c>
-      <c r="F12" t="s">
-        <v>108</v>
-      </c>
-      <c r="G12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>144</v>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>19271</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="F13" t="s">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="G13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
-        <v>19271</v>
+        <v>4669</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E14" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F14" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="G14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
-        <v>4669</v>
+        <v>17228</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D15" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E15" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
-        <v>17228</v>
+        <v>13682</v>
       </c>
       <c r="B16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>4611</v>
+      </c>
+      <c r="B17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" t="s">
         <v>129</v>
       </c>
-      <c r="C16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>13682</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="F17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>6718</v>
+      </c>
+      <c r="B18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" t="s">
         <v>99</v>
-      </c>
-      <c r="C17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17" t="s">
-        <v>124</v>
-      </c>
-      <c r="E17" t="s">
-        <v>125</v>
-      </c>
-      <c r="F17" t="s">
-        <v>126</v>
-      </c>
-      <c r="G17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>4611</v>
-      </c>
-      <c r="B18" t="s">
-        <v>147</v>
-      </c>
-      <c r="C18" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18" t="s">
-        <v>129</v>
       </c>
       <c r="F18" t="s">
         <v>130</v>
       </c>
       <c r="G18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
-        <v>6718</v>
+        <v>9109</v>
       </c>
       <c r="B19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D19" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E19" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="G19" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
-        <v>9109</v>
+        <v>12359</v>
       </c>
       <c r="B20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C20" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D20" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="G20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>12359</v>
-      </c>
-      <c r="B21" t="s">
-        <v>150</v>
-      </c>
-      <c r="C21" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" t="s">
-        <v>139</v>
-      </c>
-      <c r="F21" t="s">
-        <v>140</v>
-      </c>
-      <c r="G21" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2015,780 +1979,768 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB58980C-04EC-48B4-B25B-3268921720DA}">
-  <dimension ref="A3:G21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>790</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>528</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B4" s="1">
+        <v>778</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B5" s="1">
+        <v>475</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>274</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="E5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>662</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B6" s="1">
+        <v>479</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>752</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B7" s="1">
+        <v>775</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>645</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B8" s="1">
+        <v>520</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" t="s">
-        <v>107</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="B9" s="1">
+        <v>624</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G13" t="s">
         <v>108</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="14" spans="1:8">
+      <c r="B14" t="s">
         <v>144</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C14" t="s">
         <v>5</v>
       </c>
-      <c r="C13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
         <v>5</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>5</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13270</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="H14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15">
+        <v>25315</v>
+      </c>
+      <c r="C15" t="s">
+        <v>209</v>
+      </c>
+      <c r="D15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" t="s">
+        <v>157</v>
+      </c>
+      <c r="F15" t="s">
+        <v>178</v>
+      </c>
+      <c r="G15" t="s">
+        <v>198</v>
+      </c>
+      <c r="H15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16">
+        <v>2121</v>
+      </c>
+      <c r="C16" t="s">
+        <v>210</v>
+      </c>
+      <c r="D16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" t="s">
+        <v>200</v>
+      </c>
+      <c r="F16" t="s">
+        <v>201</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17">
+        <v>7033</v>
+      </c>
+      <c r="C17" t="s">
+        <v>211</v>
+      </c>
+      <c r="D17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>202</v>
+      </c>
+      <c r="H17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18">
+        <v>4782</v>
+      </c>
+      <c r="C18" t="s">
+        <v>212</v>
+      </c>
+      <c r="D18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" t="s">
+        <v>188</v>
+      </c>
+      <c r="G18" t="s">
+        <v>167</v>
+      </c>
+      <c r="H18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19">
+        <v>9473</v>
+      </c>
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" t="s">
         <v>203</v>
       </c>
-      <c r="C14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" t="s">
-        <v>248</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" t="s">
-        <v>249</v>
-      </c>
-      <c r="G14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>4727</v>
-      </c>
-      <c r="B15" t="s">
-        <v>266</v>
-      </c>
-      <c r="C15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" t="s">
-        <v>250</v>
-      </c>
-      <c r="E15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" t="s">
-        <v>251</v>
-      </c>
-      <c r="G15" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>14540</v>
-      </c>
-      <c r="B16" t="s">
-        <v>239</v>
-      </c>
-      <c r="C16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16" t="s">
-        <v>253</v>
-      </c>
-      <c r="E16" t="s">
-        <v>254</v>
-      </c>
-      <c r="F16" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>11236</v>
-      </c>
-      <c r="B17" t="s">
-        <v>267</v>
-      </c>
-      <c r="C17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17" t="s">
-        <v>255</v>
-      </c>
-      <c r="E17" t="s">
-        <v>191</v>
-      </c>
-      <c r="F17" t="s">
-        <v>256</v>
-      </c>
-      <c r="G17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>8360</v>
-      </c>
-      <c r="B18" t="s">
-        <v>158</v>
-      </c>
-      <c r="C18" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" t="s">
-        <v>257</v>
-      </c>
-      <c r="F18" t="s">
-        <v>193</v>
-      </c>
-      <c r="G18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>7992</v>
-      </c>
-      <c r="B19" t="s">
-        <v>268</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="G19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20">
+        <v>10050</v>
+      </c>
+      <c r="C20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" t="s">
         <v>131</v>
       </c>
-      <c r="D19" t="s">
-        <v>258</v>
-      </c>
-      <c r="E19" t="s">
-        <v>259</v>
-      </c>
-      <c r="F19" t="s">
-        <v>260</v>
-      </c>
-      <c r="G19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>13872</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" t="s">
+        <v>155</v>
+      </c>
+      <c r="G20" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21">
+        <v>10329</v>
+      </c>
+      <c r="C21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" t="s">
         <v>134</v>
       </c>
-      <c r="D20" t="s">
-        <v>261</v>
-      </c>
-      <c r="E20" t="s">
-        <v>262</v>
-      </c>
-      <c r="F20" t="s">
-        <v>177</v>
-      </c>
-      <c r="G20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>13650</v>
-      </c>
-      <c r="B21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
+        <v>204</v>
+      </c>
+      <c r="F21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22">
+        <v>18544</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
         <v>137</v>
       </c>
-      <c r="D21" t="s">
-        <v>263</v>
-      </c>
-      <c r="E21" t="s">
-        <v>157</v>
-      </c>
-      <c r="F21" t="s">
-        <v>264</v>
-      </c>
-      <c r="G21" t="s">
-        <v>265</v>
+      <c r="E22" t="s">
+        <v>205</v>
+      </c>
+      <c r="F22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7207FB50-8865-4B85-9522-BF5BDE6365D2}">
-  <dimension ref="A3:H23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="A3" sqref="A3:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>742</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
+        <v>608</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1">
+        <v>506</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1">
+        <v>621</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1">
+        <v>507</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="1">
+        <v>667</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" t="s">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G13" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>778</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E5" t="s">
-        <v>182</v>
-      </c>
-      <c r="F5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>475</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>479</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D7" t="s">
-        <v>188</v>
-      </c>
-      <c r="E7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>775</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>520</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" t="s">
-        <v>194</v>
-      </c>
-      <c r="E9" t="s">
-        <v>195</v>
-      </c>
-      <c r="F9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>624</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>196</v>
-      </c>
-      <c r="D10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>209</v>
+    <row r="14" spans="1:8">
+      <c r="B14">
+        <v>11826</v>
       </c>
       <c r="C14" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="D14" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="E14" t="s">
-        <v>152</v>
+        <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s">
-        <v>108</v>
+        <v>226</v>
       </c>
       <c r="H14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>144</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15">
+        <v>5891</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>241</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>227</v>
       </c>
       <c r="F15" t="s">
-        <v>5</v>
+        <v>228</v>
       </c>
       <c r="G15" t="s">
-        <v>5</v>
+        <v>223</v>
       </c>
       <c r="H15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="B16">
-        <v>25315</v>
+        <v>6199</v>
       </c>
       <c r="C16" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="D16" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E16" t="s">
-        <v>157</v>
+        <v>204</v>
       </c>
       <c r="F16" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
       <c r="G16" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="H16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
       <c r="B17">
-        <v>2121</v>
+        <v>15893</v>
       </c>
       <c r="C17" t="s">
-        <v>212</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E17" t="s">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>231</v>
       </c>
       <c r="H17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
       <c r="B18">
-        <v>7033</v>
+        <v>14979</v>
       </c>
       <c r="C18" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>232</v>
       </c>
       <c r="G18" t="s">
-        <v>204</v>
+        <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
       <c r="B19">
-        <v>4782</v>
+        <v>16971</v>
       </c>
       <c r="C19" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G19" t="s">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="H19" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
       <c r="B20">
-        <v>9473</v>
+        <v>7487</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>244</v>
       </c>
       <c r="D20" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>234</v>
       </c>
       <c r="F20" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="G20" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
       <c r="B21">
-        <v>10050</v>
+        <v>8401</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>245</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
+        <v>236</v>
       </c>
       <c r="F21" t="s">
-        <v>155</v>
+        <v>237</v>
       </c>
       <c r="G21" t="s">
-        <v>115</v>
+        <v>238</v>
       </c>
       <c r="H21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22">
-        <v>10329</v>
-      </c>
-      <c r="C22" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" t="s">
-        <v>206</v>
-      </c>
-      <c r="F22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G22" t="s">
-        <v>104</v>
-      </c>
-      <c r="H22" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23">
-        <v>18544</v>
-      </c>
-      <c r="C23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" t="s">
-        <v>137</v>
-      </c>
-      <c r="E23" t="s">
-        <v>207</v>
-      </c>
-      <c r="F23" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" t="s">
-        <v>74</v>
-      </c>
-      <c r="H23" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -2797,400 +2749,385 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389EC7A5-84E2-434B-9AB0-095127054B43}">
-  <dimension ref="A3:H22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>790</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
+        <v>528</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1">
+        <v>274</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1">
+        <v>662</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1">
+        <v>752</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="1">
+        <v>645</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" t="s">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F13" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>742</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" t="s">
-        <v>215</v>
-      </c>
-      <c r="F5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>608</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D6" t="s">
-        <v>217</v>
-      </c>
-      <c r="E6" t="s">
-        <v>218</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>506</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>196</v>
-      </c>
-      <c r="D7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>621</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>13270</v>
+      </c>
+      <c r="B14" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" t="s">
+        <v>246</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>247</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>4727</v>
+      </c>
+      <c r="B15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" t="s">
+        <v>248</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>249</v>
+      </c>
+      <c r="G15" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>14540</v>
+      </c>
+      <c r="B16" t="s">
+        <v>237</v>
+      </c>
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" t="s">
+        <v>251</v>
+      </c>
+      <c r="E16" t="s">
+        <v>252</v>
+      </c>
+      <c r="F16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>11236</v>
+      </c>
+      <c r="B17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" t="s">
+        <v>253</v>
+      </c>
+      <c r="E17" t="s">
+        <v>189</v>
+      </c>
+      <c r="F17" t="s">
+        <v>254</v>
+      </c>
+      <c r="G17" t="s">
         <v>61</v>
       </c>
-      <c r="D8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" t="s">
-        <v>221</v>
-      </c>
-      <c r="F8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>507</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D9" t="s">
-        <v>224</v>
-      </c>
-      <c r="E9" t="s">
-        <v>225</v>
-      </c>
-      <c r="F9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>667</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>226</v>
-      </c>
-      <c r="D10" t="s">
-        <v>227</v>
-      </c>
-      <c r="E10" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C13" t="s">
-        <v>143</v>
-      </c>
-      <c r="D13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" t="s">
-        <v>107</v>
-      </c>
-      <c r="G13" t="s">
-        <v>108</v>
-      </c>
-      <c r="H13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>110</v>
-      </c>
-      <c r="E14" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B15">
-        <v>11826</v>
-      </c>
-      <c r="C15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D15" t="s">
-        <v>112</v>
-      </c>
-      <c r="E15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" t="s">
-        <v>228</v>
-      </c>
-      <c r="H15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <v>5891</v>
-      </c>
-      <c r="C16" t="s">
-        <v>243</v>
-      </c>
-      <c r="D16" t="s">
-        <v>117</v>
-      </c>
-      <c r="E16" t="s">
-        <v>229</v>
-      </c>
-      <c r="F16" t="s">
-        <v>230</v>
-      </c>
-      <c r="G16" t="s">
-        <v>225</v>
-      </c>
-      <c r="H16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>6199</v>
-      </c>
-      <c r="C17" t="s">
-        <v>244</v>
-      </c>
-      <c r="D17" t="s">
-        <v>120</v>
-      </c>
-      <c r="E17" t="s">
-        <v>206</v>
-      </c>
-      <c r="F17" t="s">
-        <v>231</v>
-      </c>
-      <c r="G17" t="s">
-        <v>232</v>
-      </c>
-      <c r="H17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18">
-        <v>15893</v>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>8360</v>
+      </c>
+      <c r="B18" t="s">
+        <v>158</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="D18" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="G18" t="s">
-        <v>233</v>
-      </c>
-      <c r="H18" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19">
-        <v>14979</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>7992</v>
+      </c>
+      <c r="B19" t="s">
+        <v>266</v>
       </c>
       <c r="C19" t="s">
-        <v>245</v>
+        <v>131</v>
       </c>
       <c r="D19" t="s">
-        <v>127</v>
+        <v>256</v>
       </c>
       <c r="E19" t="s">
-        <v>135</v>
+        <v>257</v>
       </c>
       <c r="F19" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20">
-        <v>16971</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>13872</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>223</v>
+        <v>134</v>
       </c>
       <c r="D20" t="s">
-        <v>131</v>
+        <v>259</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>260</v>
       </c>
       <c r="F20" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="G20" t="s">
-        <v>235</v>
-      </c>
-      <c r="H20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21">
-        <v>7487</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>13650</v>
+      </c>
+      <c r="B21" t="s">
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>246</v>
+        <v>137</v>
       </c>
       <c r="D21" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
       <c r="E21" t="s">
-        <v>236</v>
+        <v>157</v>
       </c>
       <c r="F21" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="G21" t="s">
-        <v>97</v>
-      </c>
-      <c r="H21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22">
-        <v>8401</v>
-      </c>
-      <c r="C22" t="s">
-        <v>247</v>
-      </c>
-      <c r="D22" t="s">
-        <v>137</v>
-      </c>
-      <c r="E22" t="s">
-        <v>238</v>
-      </c>
-      <c r="F22" t="s">
-        <v>239</v>
-      </c>
-      <c r="G22" t="s">
-        <v>240</v>
-      </c>
-      <c r="H22" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>